--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126102a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126102a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que foram vítimas de agressão física, no período de referência de 365 dias (%)</t>
   </si>
@@ -34,18 +34,12 @@
     <t>total (1)(2)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>nível de instrução</t>
-  </si>
-  <si>
     <t>sem instrução</t>
   </si>
   <si>
@@ -100,15 +88,9 @@
     <t>superior completo ou equivalente</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (3)(4)</t>
   </si>
   <si>
-    <t xml:space="preserve">sem rendimento a menos </t>
-  </si>
-  <si>
     <t>de 1/4 do salário mínimo (3)(5)</t>
   </si>
   <si>
@@ -122,12 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
-  </si>
-  <si>
-    <t>(1) inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) inclusive as pessoas com nível de instrução não determinado. (3) ex-</t>
   </si>
 </sst>
 </file>
@@ -485,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,6 +512,18 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5.364808877688776</v>
+      </c>
+      <c r="D5">
+        <v>1.888717347409595</v>
+      </c>
+      <c r="E5">
+        <v>3.177148548543692</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -545,13 +533,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.364808877688776</v>
+        <v>2.68855898636833</v>
       </c>
       <c r="D6">
-        <v>1.888717347409595</v>
+        <v>3.132670958207936</v>
       </c>
       <c r="E6">
-        <v>3.177148548543692</v>
+        <v>4.785577185820507</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -562,19 +550,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.68855898636833</v>
+        <v>4.246334479111217</v>
       </c>
       <c r="D7">
-        <v>3.132670958207936</v>
+        <v>2.685232268488747</v>
       </c>
       <c r="E7">
-        <v>4.785577185820507</v>
+        <v>4.117613894254506</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3.524500651107561</v>
+      </c>
+      <c r="D8">
+        <v>2.065895942178819</v>
+      </c>
+      <c r="E8">
+        <v>3.528604478636443</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -584,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.246334479111217</v>
+        <v>7.745910386349123</v>
       </c>
       <c r="D9">
-        <v>2.685232268488747</v>
+        <v>4.608419192548403</v>
       </c>
       <c r="E9">
-        <v>4.117613894254506</v>
+        <v>8.628497752161014</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -601,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.524500651107561</v>
+        <v>4.080265081874791</v>
       </c>
       <c r="D10">
-        <v>2.065895942178819</v>
+        <v>2.296233555888094</v>
       </c>
       <c r="E10">
-        <v>3.528604478636443</v>
+        <v>3.846034250826301</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -618,13 +618,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.745910386349123</v>
+        <v>6.239569563532577</v>
       </c>
       <c r="D11">
-        <v>4.608419192548403</v>
+        <v>2.436613858911155</v>
       </c>
       <c r="E11">
-        <v>8.628497752161014</v>
+        <v>3.338698965054338</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -635,19 +635,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.080265081874791</v>
+        <v>4.63484208493075</v>
       </c>
       <c r="D12">
-        <v>2.296233555888094</v>
+        <v>3.103114929617329</v>
       </c>
       <c r="E12">
-        <v>3.846034250826301</v>
+        <v>6.257452730651352</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>7.457685099687388</v>
+      </c>
+      <c r="D13">
+        <v>5.773983250399212</v>
+      </c>
+      <c r="E13">
+        <v>8.447558367302292</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -657,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.239569563532577</v>
+        <v>5.288253381902845</v>
       </c>
       <c r="D14">
-        <v>2.436613858911155</v>
+        <v>4.530839547117995</v>
       </c>
       <c r="E14">
-        <v>3.338698965054338</v>
+        <v>8.234259155537561</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -674,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.63484208493075</v>
+        <v>5.515178753097761</v>
       </c>
       <c r="D15">
-        <v>3.103114929617329</v>
+        <v>4.330206285504793</v>
       </c>
       <c r="E15">
-        <v>6.257452730651352</v>
+        <v>8.755590707125139</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -691,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.457685099687388</v>
+        <v>6.549272178500729</v>
       </c>
       <c r="D16">
-        <v>5.773983250399212</v>
+        <v>5.646065968886455</v>
       </c>
       <c r="E16">
-        <v>8.447558367302292</v>
+        <v>10.74436466337572</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -708,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.288253381902845</v>
+        <v>4.240360918346912</v>
       </c>
       <c r="D17">
-        <v>4.530839547117995</v>
+        <v>2.51270067086464</v>
       </c>
       <c r="E17">
-        <v>8.234259155537561</v>
+        <v>3.520711877113075</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -725,19 +737,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.515178753097761</v>
+        <v>7.939816303451567</v>
       </c>
       <c r="D18">
-        <v>4.330206285504793</v>
+        <v>4.287149978432586</v>
       </c>
       <c r="E18">
-        <v>8.755590707125139</v>
+        <v>7.980834283999507</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>10.49281454999734</v>
+      </c>
+      <c r="D19">
+        <v>4.782500841853767</v>
+      </c>
+      <c r="E19">
+        <v>8.535826795341839</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -747,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.549272178500729</v>
+        <v>6.114933298671247</v>
       </c>
       <c r="D20">
-        <v>5.646065968886455</v>
+        <v>3.624223276468203</v>
       </c>
       <c r="E20">
-        <v>10.74436466337572</v>
+        <v>6.650102062721331</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -764,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.240360918346912</v>
+        <v>16.27799395643868</v>
       </c>
       <c r="D21">
-        <v>2.51270067086464</v>
+        <v>7.666696745585303</v>
       </c>
       <c r="E21">
-        <v>3.520711877113075</v>
+        <v>14.70557857576417</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -781,13 +805,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.939816303451567</v>
+        <v>13.89094795418878</v>
       </c>
       <c r="D22">
-        <v>4.287149978432586</v>
+        <v>6.799069282177181</v>
       </c>
       <c r="E22">
-        <v>7.980834283999507</v>
+        <v>13.53810212376479</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -798,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.49281454999734</v>
+        <v>2.747808069710306</v>
       </c>
       <c r="D23">
-        <v>4.782500841853767</v>
+        <v>1.706915798012485</v>
       </c>
       <c r="E23">
-        <v>8.535826795341839</v>
+        <v>2.729990766636668</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -815,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.114933298671247</v>
+        <v>5.760809510152359</v>
       </c>
       <c r="D24">
-        <v>3.624223276468203</v>
+        <v>4.318023929013086</v>
       </c>
       <c r="E24">
-        <v>6.650102062721331</v>
+        <v>7.476221291872592</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -832,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>16.27799395643868</v>
+        <v>5.14228290746918</v>
       </c>
       <c r="D25">
-        <v>7.666696745585303</v>
+        <v>3.698139869937683</v>
       </c>
       <c r="E25">
-        <v>14.70557857576417</v>
+        <v>6.812539149411448</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -849,19 +873,31 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>13.89094795418878</v>
+        <v>5.233066592369522</v>
       </c>
       <c r="D26">
-        <v>6.799069282177181</v>
+        <v>3.218068258552188</v>
       </c>
       <c r="E26">
-        <v>13.53810212376479</v>
+        <v>4.705088836630633</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>6.248927807359437</v>
+      </c>
+      <c r="D27">
+        <v>3.326020547347932</v>
+      </c>
+      <c r="E27">
+        <v>5.130574167200448</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
@@ -871,113 +907,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2.747808069710306</v>
+        <v>10.2584352039462</v>
       </c>
       <c r="D28">
-        <v>1.706915798012485</v>
+        <v>4.556374923787196</v>
       </c>
       <c r="E28">
-        <v>2.729990766636668</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>5.760809510152359</v>
-      </c>
-      <c r="D30">
-        <v>4.318023929013086</v>
-      </c>
-      <c r="E30">
-        <v>7.476221291872592</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>5.14228290746918</v>
-      </c>
-      <c r="D31">
-        <v>3.698139869937683</v>
-      </c>
-      <c r="E31">
-        <v>6.812539149411448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>5.233066592369522</v>
-      </c>
-      <c r="D32">
-        <v>3.218068258552188</v>
-      </c>
-      <c r="E32">
-        <v>4.705088836630633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>6.248927807359437</v>
-      </c>
-      <c r="D33">
-        <v>3.326020547347932</v>
-      </c>
-      <c r="E33">
-        <v>5.130574167200448</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>10.2584352039462</v>
-      </c>
-      <c r="D34">
-        <v>4.556374923787196</v>
-      </c>
-      <c r="E34">
         <v>7.734228116110526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
